--- a/etc/doc/통합테스트결과서/EMP 통합테스트 결과서.xlsx
+++ b/etc/doc/통합테스트결과서/EMP 통합테스트 결과서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\문서\BICNS\코스콤\통합테스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\koscom_etp\kc_etp\etc\doc\통합테스트결과서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="통합테스트 목차" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="IS_ETP-1000-1004" sheetId="7" r:id="rId7"/>
     <sheet name="IS_ETP-2000-1001" sheetId="8" r:id="rId8"/>
     <sheet name="IS_IDX-1000-1001" sheetId="9" r:id="rId9"/>
+    <sheet name="IS_SIMUL-3000-1001" sheetId="10" r:id="rId10"/>
+    <sheet name="IS_SIMUL-3000-1002" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="324">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,10 +354,6 @@
   </si>
   <si>
     <t>1. 로그인한 삼성 운용사의 데이터만 조회되는지 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 로그인한 코스톰의 데이터만 조회되는지 확인한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1059,6 +1057,378 @@
   </si>
   <si>
     <t>지수의 목록 클릭시 해당지수의 내역을 조회 한다</t>
+  </si>
+  <si>
+    <t>IS_IDX-3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_IDX-3000-1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 로그인한 코스콤의 데이터만 조회되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 등록된 시뮬레이션 시나리오 목록을 확인 한다. 
+2. 등록된 시뮬레이션 이름변경, 수정, 삭제, 공유 기능을 확인 한다. 
+3. 그룹별 목록이 정상 출력 되는지 확인 한다. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_SIMUL-3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_SIMUL-3000-1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시뮬레이션 대시보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ETP 사업자 또는 코스콤 아이디로 로그인 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 시뮬레이션 목록 정보를 확인 한다. 
+2. 목록의 기능(이름변경, 삭제, 공유) 작동 여부를 확인 한다.
+3. 그룹 생성 여부를 확인 한다. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-SIMUL-DASHBOARD-01</t>
+  </si>
+  <si>
+    <t>로그인정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SIMULATION 탭] 선택시 시뮬레이션 조건설정 화면을 정상적으로 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[시나리오 생성] 버튼 클릭시 시뮬레이션 조건설정 화면을 정상적으로 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[그룹 생성] 버튼 클릭시 그룹명을 등록할수 있는 정보가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[그룹생성] 버튼 클릭 후 추가 그룹명을 입력하지 않고 추가 버튼 클릭시 메시지가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[그룹생성] 버튼 클릭 후 이미 존재하는 그룹명을 입력한 후 추가 버튼 클릭시 메시지가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[시계열등록] 버튼 클릭시 시계열 업로드 화면을 정상적으로 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비교할 대상을 선택하지 않고 [비교하기] 버튼 클릭시 메시지가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비교할 대상을 1개만 선택하고 [비교하기] 버튼 클릭시 메시지가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비교할 대상을 2개 이상 선택하고 [비교하기] 버튼 클릭시 선택된 시나리오가 결과화면에 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹인 경우 설정하기 버튼이 비활성화 되어 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정하기 버튼 선택시 시나리오 조건설정이 정상적으로 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오에 대해 결과보기 버튼 선택시 해당 시나리오 결과화면이 정상적으로 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹에 대해 결과보기 버튼 선택시 그룹에 속한 시나리오들이 결과화면에 정상적으로 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오에 대해 삭제 버튼 선택시 해당 시나리오가 정상적으로 삭제된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹에 대해 삭제 버튼 선택시 그룹에 속한 시나리오가 1건 이상 존재하는 경우 오류메시지가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹에 대해 삭제 버튼 선택시 그룹에 속한 시나리오가 없는 경우 정상적으로 삭제된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오에 대해 이름변경시 해당 시나리오명이 수정될수 있게 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오에 대해 이름변경시 이미 존재하는 시나리오명 입력시 메시지가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오에 대해 이름변경시 존재하지 않는 시나리오명 입력시 정상적으로 변경된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹에 대해 이름변경시 해당 시나리오명이 수정될수 있게 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹에 대해 이름변경시 이미 존재하는 시나리오명 입력시 메시지가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹에 대해 이름변경시 존재하지 않는 시나리오명 입력시 정상적으로 변경된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오에 대해 그룹변경 선택시 그룹목록이 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오에 대해 복사하기 선택시 해당 시나리오가 복사되어 시나리오명에 "_copy" 가 붙어 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹에 대해 복사하기 선택시 해당 그룹만 복사되어 시나리오명에 "_copy"가 붙어 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유하기 선택시 공유하기 팝업창이 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인정보, 비교 시뮬레이션 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인정보, 비교 시뮬레이션 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인정보, 비교 시뮬레이션 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시뮬레이션 결과 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 차트 정보가 제대로 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 분석 지표가 제대로 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자별 지수가 제대로 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 버튼이 제대로 동작된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유하기 버튼 선택시 공유창이 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유해준 이메일로 로그인하여 해당 시나리오가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유해준 이메일로 로그인하여 해당 시나리오가 노출되지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀다운로드 버튼이 제대로 동작된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인정보, 시뮬레이션 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ETP 사업자 또는 코스콤 아이디로 로그인 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리밸런싱내역이 제대로 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. 결과정보 차트 및 시계열정보 중 일부 노출할 메인 타이틀 정보
+ 2. 일자별 지수
+ 3. 리밸런싱 내역 
+ 4. 시계열분석
+ 5. 포트폴리오분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시계열분석이 제대로 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오분석이 제대로 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-SIMUL-RESULT-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 메인 차트 정보가 제대로 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 메인 분석 지표가 제대로 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 일자별 지수가 제대로 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 이전 버튼이 제대로 동작되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 공유하기 버튼 선택시 공유창이 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 공유하기 제대로 동작되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 해제하기가 제대로 동작되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 엑셀다운로드 버튼이 제대로 동작되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 리밸런싱내역이 제대로 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 시계열분석이 제대로 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 포트폴리오분석이 제대로 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- [SIMULATION 탭] 선택시 시뮬레이션 조건설정 화면을 정상적으로 보여주는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- [시나리오 생성] 버튼 클릭시 시뮬레이션 조건설정 화면을 정상적으로 보여주는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- [그룹 생성] 버튼 클릭시 그룹명을 등록할수 있는 정보가 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- [그룹생성] 버튼 클릭 후 추가 그룹명을 입력하지 않고 추가 버튼 클릭시 메시지가 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- [그룹생성] 버튼 클릭 후 이미 존재하는 그룹명을 입력한 후 추가 버튼 클릭시 메시지가 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- [시계열등록] 버튼 클릭시 시계열 업로드 화면을 정상적으로 보여주는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 비교할 대상을 선택하지 않고 [비교하기] 버튼 클릭시 메시지가 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 비교할 대상을 1개만 선택하고 [비교하기] 버튼 클릭시 메시지가 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 비교할 대상을 2개 이상 선택하고 [비교하기] 버튼 클릭시 선택된 시나리오가 결과화면에 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 그룹인 경우 설정하기 버튼이 비활성화 되어 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 설정하기 버튼 선택시 시나리오 조건설정이 정상적으로 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 시나리오에 대해 결과보기 버튼 선택시 해당 시나리오 결과화면이 정상적으로 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 그룹에 대해 결과보기 버튼 선택시 그룹에 속한 시나리오들이 결과화면에 정상적으로 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 시나리오에 대해 삭제 버튼 선택시 해당 시나리오가 정상적으로 삭제되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 그룹에 대해 삭제 버튼 선택시 그룹에 속한 시나리오가 1건 이상 존재하는 경우 오류메시지가 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 그룹에 대해 삭제 버튼 선택시 그룹에 속한 시나리오가 없는 경우 정상적으로 삭제되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 시나리오에 대해 이름변경시 해당 시나리오명이 수정될수 있게 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 시나리오에 대해 이름변경시 이미 존재하는 시나리오명 입력시 메시지가 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 시나리오에 대해 이름변경시 존재하지 않는 시나리오명 입력시 정상적으로 변경되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 그룹에 대해 이름변경시 해당 시나리오명이 수정될수 있게 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 그룹에 대해 이름변경시 이미 존재하는 시나리오명 입력시 메시지가 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 그룹에 대해 이름변경시 존재하지 않는 시나리오명 입력시 정상적으로 변경되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 시나리오에 대해 그룹변경 선택시 그룹목록이 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 시나리오에 대해 복사하기 선택시 해당 시나리오가 복사되어 시나리오명에 "_copy" 가 붙어 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 그룹에 대해 복사하기 선택시 해당 그룹만 복사되어 시나리오명에 "_copy"가 붙어 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 공유하기 선택시 공유하기 팝업창이 노출되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>- 시나리오에 대해 공유하기 선택 후 공유자를 선택한다.
+2. 공유받은 사용자로 로그인하여 시나리오 목록 조회시 정상적으로 노출된다.</t>
+  </si>
+  <si>
+    <t>- 그룹에 대해 공유하기 선택 후 공유자를 선택한다.
+2. 공유받은 사용자로 로그인하여 시나리오 목록 조회시 정상적으로 노출된다.</t>
+  </si>
+  <si>
+    <t>- 시나리오에 대해 공유하기 선택 후 공유자를 선택한다.
+- 공유받은 사용자로 로그인하여 시나리오 목록 조회시 정상적으로 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 그룹에 대해 공유하기 선택 후 공유자를 선택한다.
+- 공유받은 사용자로 로그인하여 시나리오 목록 조회시 정상적으로 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_IDX-3000-1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 시뮬레이션 백테스트 결과를 확인한다. 
+   - 시계열정보, 리밸런싱정보, 포트폴리오 정보, 분석정보
+2. 시뮬레이션 배교 결과를 확인한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1271,7 +1641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1281,12 +1651,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -1295,15 +1659,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1324,19 +1679,49 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -1350,38 +1735,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1694,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1709,50 +2094,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="22" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -1764,205 +2149,246 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="14"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="7"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14" s="6">
         <v>6</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="33" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="6">
         <v>7</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>8</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="E16" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="48" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="36"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="36"/>
+      <c r="D17" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="A2:G2"/>
@@ -1988,7 +2414,1361 @@
     <hyperlink ref="E14" location="'IS_ETP-1000-1004'!A1" display="IS_ETP-1000-1004"/>
     <hyperlink ref="E15" location="'IS_ETP-2000-1001'!A1" display="IS_ETP-2000-1001"/>
     <hyperlink ref="E16" location="'IS_IDX-1000-1001'!A1" display="IS_IDX-1000-1001"/>
+    <hyperlink ref="E17" location="'IS_SIMUL-3000-1001'!A1" display="IS_IDX-3000-1001"/>
+    <hyperlink ref="E18" location="'IS_SIMUL-3000-1002'!A1" display="IS_IDX-3000-1002"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="5.25" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="38.625" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="37.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>12</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>14</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>15</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>16</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>17</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>18</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>19</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>20</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>21</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>22</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>23</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>24</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>25</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>26</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>27</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>28</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="5.25" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="38.625" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="37.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2013,11 +3793,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2027,68 +3807,68 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="21" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -2101,118 +3881,118 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="14" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="6">
         <v>3</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2224,7 +4004,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A6:C6"/>
@@ -2235,6 +4014,7 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2261,11 +4041,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2275,68 +4055,68 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="21" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -2349,92 +4129,92 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="14" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2467,7 +4247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2481,11 +4263,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2495,68 +4277,68 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
     <row r="5" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="30" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -2569,353 +4351,353 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="14" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="E10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H11" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="11" t="s">
+    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="E12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H19" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>3</v>
-      </c>
-      <c r="B12" s="11" t="s">
+    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>4</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="D20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>12</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>5</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>6</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>7</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>8</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>9</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>10</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>11</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="D21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="E21" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H21" s="5" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>12</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2940,6 +4722,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2963,11 +4746,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2977,68 +4760,68 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="21" t="s">
-        <v>92</v>
+      <c r="G3" s="33"/>
+      <c r="H3" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="21" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="40" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -3051,119 +4834,119 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="14" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E11" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H11" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="11" t="s">
+    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D12" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E12" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="F12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>3</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3211,11 +4994,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3225,68 +5008,68 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="21" t="s">
-        <v>92</v>
+      <c r="G3" s="33"/>
+      <c r="H3" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="21" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="40" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -3299,104 +5082,104 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="14" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="19" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -3428,7 +5211,7 @@
   <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3443,11 +5226,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3457,68 +5240,68 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="21" t="s">
-        <v>92</v>
+      <c r="G3" s="33"/>
+      <c r="H3" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="21" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="5" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -3531,145 +5314,145 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="14" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="19" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="19" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="F12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>3</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H12" s="12" t="s">
+      <c r="E13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>4</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="H13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3717,11 +5500,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3731,68 +5514,68 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="21" t="s">
-        <v>150</v>
-      </c>
-    </row>
     <row r="5" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -3805,613 +5588,613 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="14" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="E17" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="108" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>12</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="120" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>14</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>15</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>3</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>4</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>5</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>6</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>7</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>8</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>9</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>10</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>11</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="108" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>12</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>13</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="120" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>14</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="B24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" s="12" t="s">
+      <c r="E24" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>15</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="12" t="s">
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>16</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="12" t="s">
+      <c r="E25" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>16</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="12" t="s">
+    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>17</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" s="12" t="s">
+      <c r="E26" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>17</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="12" t="s">
+    <row r="27" spans="1:8" ht="120" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>18</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="12" t="s">
+      <c r="E27" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="120" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
-        <v>18</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="12" t="s">
+    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>19</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="12" t="s">
+      <c r="E28" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
-        <v>19</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="12" t="s">
+    <row r="29" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>20</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H28" s="12" t="s">
+      <c r="E29" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
-        <v>20</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="12" t="s">
+    <row r="30" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>21</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="12" t="s">
+      <c r="E30" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
-        <v>21</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="12" t="s">
+    <row r="31" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>22</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="12" t="s">
+      <c r="E31" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="48" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
-        <v>22</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4457,11 +6240,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -4471,68 +6254,68 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="21" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -4545,223 +6328,223 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="14" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" ht="108" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="48" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>3</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>4</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>5</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="F14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>6</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E16" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="F16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>7</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
